--- a/PXD027742/sdrf.xlsx
+++ b/PXD027742/sdrf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Payne Lab\TMT\TMT_QC\PXD027742\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2431215-4F41-45E7-8DFB-AAC9B0579D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59254C1E-7889-4040-853B-7DA1D052851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B0FF2B6B-E326-450E-82DA-7E4299F0AAC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FF2B6B-E326-450E-82DA-7E4299F0AAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/PXD027742/sdrf.xlsx
+++ b/PXD027742/sdrf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Payne Lab\TMT\TMT_QC\PXD027742\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59254C1E-7889-4040-853B-7DA1D052851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFB26D-A7ED-4A4B-A013-16A42394F84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0FF2B6B-E326-450E-82DA-7E4299F0AAC8}"/>
   </bookViews>
@@ -167,40 +167,40 @@
     <t>Plex</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H14_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H14_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H14_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H14_100pg_AGC300_2.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H210_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H42_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H210_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H42_100pg_AGC300_2.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H42_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H98_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H42_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H98_100pg_AGC300_2.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H434_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H210_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H434_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H210_100pg_AGC300_2.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H98_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H434_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H98_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_H434_100pg_AGC300_2.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_No126_100pg_AGC300_1.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_No126_100pg_AGC300_1.raw</t>
   </si>
   <si>
-    <t>D:\Users\PCL_user\Mass_Spec\data\TMT_sc_data\Datasets\PXD027742\output\interact-20200820_EXPL8_EVO1_ZY_SA_44min_TMT_No126_100pg_AGC300_2.pep.xml</t>
+    <t>20200820_EXPL8_EVO1_ZY_SA_44min_TMT_No126_100pg_AGC300_2.raw</t>
   </si>
 </sst>
 </file>
@@ -564,12 +564,12 @@
   <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.33203125" customWidth="1"/>
+    <col min="1" max="1" width="63.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>25</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>27</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
         <v>27</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
         <v>27</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
         <v>28</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>28</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
         <v>28</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
         <v>28</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
         <v>28</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
         <v>28</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
         <v>28</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
         <v>28</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
         <v>28</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
         <v>28</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
         <v>28</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
         <v>28</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
         <v>28</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
         <v>28</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B121" t="s">
         <v>29</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
         <v>29</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
         <v>29</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
         <v>29</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
         <v>29</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
         <v>29</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
         <v>29</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
         <v>29</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
         <v>29</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
         <v>29</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
         <v>29</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
         <v>29</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
         <v>29</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
         <v>30</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
         <v>30</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B141" t="s">
         <v>30</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
         <v>30</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
         <v>30</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
         <v>30</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B146" t="s">
         <v>30</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B147" t="s">
         <v>30</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
         <v>30</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
         <v>30</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
         <v>30</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B151" t="s">
         <v>30</v>
@@ -5158,7 +5158,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
         <v>30</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B153" t="s">
         <v>30</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B155" t="s">
         <v>31</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B156" t="s">
         <v>31</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B157" t="s">
         <v>31</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B158" t="s">
         <v>31</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B159" t="s">
         <v>31</v>
@@ -5382,7 +5382,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
         <v>31</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B161" t="s">
         <v>31</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
         <v>31</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B163" t="s">
         <v>31</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B164" t="s">
         <v>31</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
         <v>31</v>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
         <v>31</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B167" t="s">
         <v>31</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
         <v>31</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B169" t="s">
         <v>31</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B170" t="s">
         <v>31</v>
